--- a/import_test/ts_test.xlsx
+++ b/import_test/ts_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/import_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811E2FBF-ABCB-8B43-912B-E2BB805070B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF8A5C5-4402-414F-B3F1-262698DFA7D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6620" yWindow="4280" windowWidth="17940" windowHeight="12620" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
+    <workbookView xWindow="820" yWindow="960" windowWidth="17940" windowHeight="12620" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="109">
   <si>
     <t>台属</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -219,9 +219,6 @@
     <t>张秀琳</t>
   </si>
   <si>
-    <t>1929 .1</t>
-  </si>
-  <si>
     <t>乐清</t>
   </si>
   <si>
@@ -243,9 +240,6 @@
     <t>秋施</t>
   </si>
   <si>
-    <t>1944 .7</t>
-  </si>
-  <si>
     <t>运通苑8-101</t>
   </si>
   <si>
@@ -286,13 +280,99 @@
   </si>
   <si>
     <t>屠男信</t>
+  </si>
+  <si>
+    <t>1946.8</t>
+  </si>
+  <si>
+    <t>85901219</t>
+  </si>
+  <si>
+    <t>1950.4</t>
+  </si>
+  <si>
+    <t>1921.8</t>
+  </si>
+  <si>
+    <t>1927.11</t>
+  </si>
+  <si>
+    <t>88315681</t>
+  </si>
+  <si>
+    <t>1951.8</t>
+  </si>
+  <si>
+    <t>1925.4</t>
+  </si>
+  <si>
+    <t>1947.9</t>
+  </si>
+  <si>
+    <t>85135217</t>
+  </si>
+  <si>
+    <t>1974.9</t>
+  </si>
+  <si>
+    <t>1951.1</t>
+  </si>
+  <si>
+    <t>1943.1</t>
+  </si>
+  <si>
+    <t>13065545531</t>
+  </si>
+  <si>
+    <t>1941.1</t>
+  </si>
+  <si>
+    <t>1945.4</t>
+  </si>
+  <si>
+    <t>88652212</t>
+  </si>
+  <si>
+    <t>1954.2</t>
+  </si>
+  <si>
+    <t>1927.6</t>
+  </si>
+  <si>
+    <t>85126192</t>
+  </si>
+  <si>
+    <t>1980.4</t>
+  </si>
+  <si>
+    <t>1941.8</t>
+  </si>
+  <si>
+    <t>1942.1</t>
+  </si>
+  <si>
+    <t>85141530</t>
+  </si>
+  <si>
+    <t>1942.8</t>
+  </si>
+  <si>
+    <t>1918.4</t>
+  </si>
+  <si>
+    <t>1929.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1944.7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -329,18 +409,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -395,32 +463,25 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -738,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E2FCD3-2382-D348-B011-EC8A147381B8}">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:T10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -859,425 +920,418 @@
       </c>
       <c r="T3" s="3"/>
     </row>
-    <row r="4" spans="1:20" ht="54">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:20">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="7">
-        <v>1946.8</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="7">
-        <v>85901219</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="I4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="7">
-        <v>1950.4</v>
-      </c>
-      <c r="L4" s="7" t="s">
+      <c r="K4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="7">
-        <v>1921.8</v>
-      </c>
-      <c r="Q4" s="7" t="s">
+      <c r="P4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="S4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="7"/>
     </row>
-    <row r="5" spans="1:20" ht="54">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:20">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="7">
-        <v>1927.11</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="7">
-        <v>88315681</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="I5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="7">
-        <v>1951.8</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="K5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="7">
-        <v>1925.4</v>
-      </c>
-      <c r="Q5" s="7" t="s">
+      <c r="P5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="R5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="S5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="T5" s="8"/>
     </row>
-    <row r="6" spans="1:20" ht="54">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:20">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="7">
-        <v>1947.9</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="7">
-        <v>85135217</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="I6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="7">
-        <v>1974.9</v>
-      </c>
-      <c r="L6" s="7" t="s">
+      <c r="K6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P6" s="7">
-        <v>1951.1</v>
-      </c>
-      <c r="Q6" s="7" t="s">
+      <c r="P6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R6" s="7" t="s">
+      <c r="R6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S6" s="7" t="s">
+      <c r="S6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T6" s="8"/>
     </row>
-    <row r="7" spans="1:20" ht="20">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:20">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="7">
-        <v>1943.1</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="7">
-        <v>13065545531</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="I7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="7">
-        <v>1941.1</v>
-      </c>
-      <c r="L7" s="7" t="s">
+      <c r="K7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="7">
-        <v>1945.4</v>
-      </c>
-      <c r="Q7" s="7" t="s">
+      <c r="P7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R7" s="7" t="s">
+      <c r="R7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S7" s="7" t="s">
+      <c r="S7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T7" s="7"/>
     </row>
-    <row r="8" spans="1:20" ht="36">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:20">
+      <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="7">
-        <v>88652212</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K8" s="7">
-        <v>1954.2</v>
-      </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="N8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="O8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="O8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P8" s="7">
-        <v>1927.6</v>
-      </c>
-      <c r="Q8" s="7" t="s">
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="S8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:20" ht="36">
-      <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="7" t="s">
+      <c r="R10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="7">
-        <v>85126192</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K9" s="7">
-        <v>1980.4</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" s="7" t="s">
+      <c r="S10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="O9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P9" s="7">
-        <v>1941.8</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="R9" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:20" ht="54">
-      <c r="A10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1942.1</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="7">
-        <v>85141530</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" s="7">
-        <v>1942.8</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P10" s="7">
-        <v>1918.4</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="S10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="T10" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/import_test/ts_test.xlsx
+++ b/import_test/ts_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/import_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF8A5C5-4402-414F-B3F1-262698DFA7D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AD5EC8-C2BB-5743-B8E5-431D64A37C35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="960" windowWidth="17940" windowHeight="12620" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
+    <workbookView xWindow="11740" yWindow="5420" windowWidth="31080" windowHeight="12620" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="110">
   <si>
     <t>台属</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -93,6 +93,10 @@
     <t>联系程度</t>
   </si>
   <si>
+    <t>序号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>越城区</t>
   </si>
   <si>
@@ -102,6 +106,9 @@
     <t>男</t>
   </si>
   <si>
+    <t>1946.8</t>
+  </si>
+  <si>
     <t>绍兴</t>
   </si>
   <si>
@@ -114,9 +121,15 @@
     <t>民革</t>
   </si>
   <si>
+    <t>85901219</t>
+  </si>
+  <si>
     <t>李四</t>
   </si>
   <si>
+    <t>1950.4</t>
+  </si>
+  <si>
     <t>维修</t>
   </si>
   <si>
@@ -126,6 +139,9 @@
     <t>孔泉</t>
   </si>
   <si>
+    <t>1921.8</t>
+  </si>
+  <si>
     <t>高雄市</t>
   </si>
   <si>
@@ -138,6 +154,9 @@
     <t>徐群</t>
   </si>
   <si>
+    <t>1927.11</t>
+  </si>
+  <si>
     <t>诸暨</t>
   </si>
   <si>
@@ -150,9 +169,15 @@
     <t>中共</t>
   </si>
   <si>
+    <t>88315681</t>
+  </si>
+  <si>
     <t>刘无</t>
   </si>
   <si>
+    <t>1951.8</t>
+  </si>
+  <si>
     <t>木工</t>
   </si>
   <si>
@@ -162,6 +187,9 @@
     <t>徐中安</t>
   </si>
   <si>
+    <t>1925.4</t>
+  </si>
+  <si>
     <t>台北市</t>
   </si>
   <si>
@@ -171,15 +199,24 @@
     <t>黄伟刚</t>
   </si>
   <si>
+    <t>1947.9</t>
+  </si>
+  <si>
     <t>胜利东路78号7-102</t>
   </si>
   <si>
     <t>护士</t>
   </si>
   <si>
+    <t>85135217</t>
+  </si>
+  <si>
     <t>唐二</t>
   </si>
   <si>
+    <t>1974.9</t>
+  </si>
+  <si>
     <t>保洁</t>
   </si>
   <si>
@@ -192,21 +229,33 @@
     <t>女</t>
   </si>
   <si>
+    <t>1951.1</t>
+  </si>
+  <si>
     <t>台中市</t>
   </si>
   <si>
     <t>尹立根</t>
   </si>
   <si>
+    <t>1943.1</t>
+  </si>
+  <si>
     <t>城东</t>
   </si>
   <si>
     <t>公务员</t>
   </si>
   <si>
+    <t>13065545531</t>
+  </si>
+  <si>
     <t>黄三</t>
   </si>
   <si>
+    <t>1941.1</t>
+  </si>
+  <si>
     <t>装修</t>
   </si>
   <si>
@@ -216,156 +265,111 @@
     <t>周林</t>
   </si>
   <si>
+    <t>1945.4</t>
+  </si>
+  <si>
     <t>张秀琳</t>
-  </si>
-  <si>
-    <t>乐清</t>
-  </si>
-  <si>
-    <t>蜂场8-202</t>
-  </si>
-  <si>
-    <t>吴刘</t>
-  </si>
-  <si>
-    <t>文员</t>
-  </si>
-  <si>
-    <t>姐</t>
-  </si>
-  <si>
-    <t>徐小琴</t>
-  </si>
-  <si>
-    <t>秋施</t>
-  </si>
-  <si>
-    <t>运通苑8-101</t>
-  </si>
-  <si>
-    <t>画家</t>
-  </si>
-  <si>
-    <t>民建</t>
-  </si>
-  <si>
-    <t>章七</t>
-  </si>
-  <si>
-    <t>厨师</t>
-  </si>
-  <si>
-    <t>施玉秋</t>
-  </si>
-  <si>
-    <t>园林</t>
-  </si>
-  <si>
-    <t>一般</t>
-  </si>
-  <si>
-    <t>范军强</t>
-  </si>
-  <si>
-    <t>辛弄伽蓝殿新公房14号305</t>
-  </si>
-  <si>
-    <t>谢五</t>
-  </si>
-  <si>
-    <t>服务员</t>
-  </si>
-  <si>
-    <t>叔</t>
-  </si>
-  <si>
-    <t>屠男信</t>
-  </si>
-  <si>
-    <t>1946.8</t>
-  </si>
-  <si>
-    <t>85901219</t>
-  </si>
-  <si>
-    <t>1950.4</t>
-  </si>
-  <si>
-    <t>1921.8</t>
-  </si>
-  <si>
-    <t>1927.11</t>
-  </si>
-  <si>
-    <t>88315681</t>
-  </si>
-  <si>
-    <t>1951.8</t>
-  </si>
-  <si>
-    <t>1925.4</t>
-  </si>
-  <si>
-    <t>1947.9</t>
-  </si>
-  <si>
-    <t>85135217</t>
-  </si>
-  <si>
-    <t>1974.9</t>
-  </si>
-  <si>
-    <t>1951.1</t>
-  </si>
-  <si>
-    <t>1943.1</t>
-  </si>
-  <si>
-    <t>13065545531</t>
-  </si>
-  <si>
-    <t>1941.1</t>
-  </si>
-  <si>
-    <t>1945.4</t>
-  </si>
-  <si>
-    <t>88652212</t>
-  </si>
-  <si>
-    <t>1954.2</t>
-  </si>
-  <si>
-    <t>1927.6</t>
-  </si>
-  <si>
-    <t>85126192</t>
-  </si>
-  <si>
-    <t>1980.4</t>
-  </si>
-  <si>
-    <t>1941.8</t>
-  </si>
-  <si>
-    <t>1942.1</t>
-  </si>
-  <si>
-    <t>85141530</t>
-  </si>
-  <si>
-    <t>1942.8</t>
-  </si>
-  <si>
-    <t>1918.4</t>
   </si>
   <si>
     <t>1929.1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>乐清</t>
+  </si>
+  <si>
+    <t>蜂场8-202</t>
+  </si>
+  <si>
+    <t>88652212</t>
+  </si>
+  <si>
+    <t>吴刘</t>
+  </si>
+  <si>
+    <t>1954.2</t>
+  </si>
+  <si>
+    <t>文员</t>
+  </si>
+  <si>
+    <t>姐</t>
+  </si>
+  <si>
+    <t>徐小琴</t>
+  </si>
+  <si>
+    <t>1927.6</t>
+  </si>
+  <si>
+    <t>秋施</t>
+  </si>
+  <si>
     <t>1944.7</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>运通苑8-101</t>
+  </si>
+  <si>
+    <t>画家</t>
+  </si>
+  <si>
+    <t>民建</t>
+  </si>
+  <si>
+    <t>85126192</t>
+  </si>
+  <si>
+    <t>章七</t>
+  </si>
+  <si>
+    <t>1980.4</t>
+  </si>
+  <si>
+    <t>厨师</t>
+  </si>
+  <si>
+    <t>施玉秋</t>
+  </si>
+  <si>
+    <t>1941.8</t>
+  </si>
+  <si>
+    <t>园林</t>
+  </si>
+  <si>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>范军强</t>
+  </si>
+  <si>
+    <t>1942.1</t>
+  </si>
+  <si>
+    <t>辛弄伽蓝殿新公房14号305</t>
+  </si>
+  <si>
+    <t>85141530</t>
+  </si>
+  <si>
+    <t>谢五</t>
+  </si>
+  <si>
+    <t>1942.8</t>
+  </si>
+  <si>
+    <t>服务员</t>
+  </si>
+  <si>
+    <t>叔</t>
+  </si>
+  <si>
+    <t>屠男信</t>
+  </si>
+  <si>
+    <t>1918.4</t>
   </si>
 </sst>
 </file>
@@ -463,24 +467,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -797,18 +804,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E2FCD3-2382-D348-B011-EC8A147381B8}">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="26">
+    <row r="1" spans="1:21" ht="26">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -820,526 +827,538 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
       <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:21">
       <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3" t="s">
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3" t="s">
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21">
       <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="2" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="3"/>
+      <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:21">
+      <c r="B4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" s="6"/>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U5" s="6"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" s="6"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" s="6"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="B8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="L8" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U8" s="6"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="B9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="E9" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="G9" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="U9" s="6"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="I10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="J10" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="P10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="1" t="s">
+      <c r="Q10" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="S10" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P8" s="1" t="s">
+      <c r="T10" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="U10" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:S2"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="A1:T1"/>
+  <mergeCells count="14">
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:T2"/>
+    <mergeCell ref="U2:U3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
@@ -1348,6 +1367,7 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/import_test/ts_test.xlsx
+++ b/import_test/ts_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/import_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AD5EC8-C2BB-5743-B8E5-431D64A37C35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7CB99C-20EF-3549-B6D6-1EDC36FA9557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11740" yWindow="5420" windowWidth="31080" windowHeight="12620" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
   </bookViews>
@@ -467,7 +467,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -480,13 +480,16 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -807,99 +810,114 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="26">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5" t="s">
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="3"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
       <c r="K3" s="1" t="s">
         <v>13</v>
       </c>
@@ -930,427 +948,434 @@
       <c r="T3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="5"/>
+      <c r="U3" s="6"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="S4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="T4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="U4" s="6"/>
+      <c r="U4" s="7"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="P5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="R5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="S5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="T5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="U5" s="6"/>
+      <c r="U5" s="7"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="P6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="R6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="S6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="T6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="U6" s="6"/>
+      <c r="U6" s="7"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="P7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="Q7" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="R7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="S7" s="6" t="s">
+      <c r="S7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="T7" s="6" t="s">
+      <c r="T7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="U7" s="6"/>
+      <c r="U7" s="7"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="P8" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="Q8" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="R8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="S8" s="6" t="s">
+      <c r="S8" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="T8" s="6" t="s">
+      <c r="T8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="U8" s="6"/>
+      <c r="U8" s="7"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="N9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="O9" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="P9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="Q9" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="R9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="S9" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="T9" s="6" t="s">
+      <c r="T9" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="U9" s="6"/>
+      <c r="U9" s="7"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="N10" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="O10" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P10" s="6" t="s">
+      <c r="P10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Q10" s="6" t="s">
+      <c r="Q10" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="R10" s="6" t="s">
+      <c r="R10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="S10" s="6" t="s">
+      <c r="S10" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="T10" s="6" t="s">
+      <c r="T10" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="U10" s="6"/>
+      <c r="U10" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/import_test/ts_test.xlsx
+++ b/import_test/ts_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/import_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7CB99C-20EF-3549-B6D6-1EDC36FA9557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DD87CC-25DB-BF4A-8B13-B654B489C0DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11740" yWindow="5420" windowWidth="31080" windowHeight="12620" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
   </bookViews>
@@ -36,14 +36,14 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="110">
   <si>
     <t>台属</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>地区</t>
   </si>
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>性别</t>
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>籍贯</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>通讯地址</t>
@@ -75,7 +75,7 @@
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>姓名</t>
@@ -94,7 +94,7 @@
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>越城区</t>
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>1929.1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>乐清</t>
@@ -306,7 +306,7 @@
   </si>
   <si>
     <t>1944.7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>运通苑8-101</t>
@@ -376,7 +376,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -387,13 +387,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -411,11 +404,27 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="20"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -471,7 +480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -480,13 +489,13 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -810,10 +819,10 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8" style="2" bestFit="1" customWidth="1"/>
@@ -834,124 +843,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="26">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6" t="s">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6" t="s">
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="4"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="1" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="6"/>
+      <c r="U3" s="4"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="3"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
         <v>19</v>
       </c>
@@ -1012,7 +1021,7 @@
       <c r="U4" s="7"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="3"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
         <v>19</v>
       </c>
@@ -1073,7 +1082,7 @@
       <c r="U5" s="7"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="3"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
         <v>19</v>
       </c>
@@ -1134,7 +1143,7 @@
       <c r="U6" s="7"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="3"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
@@ -1195,7 +1204,7 @@
       <c r="U7" s="7"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="3"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
@@ -1256,7 +1265,7 @@
       <c r="U8" s="7"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="3"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
         <v>19</v>
       </c>
@@ -1317,7 +1326,7 @@
       <c r="U9" s="7"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="3"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
@@ -1394,7 +1403,7 @@
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/import_test/ts_test.xlsx
+++ b/import_test/ts_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/import_test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\election-s-prediction\import_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DD87CC-25DB-BF4A-8B13-B654B489C0DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D709201-D27E-426D-AECB-903D07E17C2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11740" yWindow="5420" windowWidth="31080" windowHeight="12620" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
+    <workbookView xWindow="16875" yWindow="3360" windowWidth="30945" windowHeight="15015" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -376,7 +376,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -480,16 +480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -500,6 +491,15 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -819,572 +819,572 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="E18" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="26">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4" t="s">
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="4"/>
+      <c r="U3" s="7"/>
     </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="S4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="T4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="U4" s="7"/>
+      <c r="U4" s="4"/>
     </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="R5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="S5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="T5" s="7" t="s">
+      <c r="T5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="U5" s="7"/>
+      <c r="U5" s="4"/>
     </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="R6" s="7" t="s">
+      <c r="R6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="S6" s="7" t="s">
+      <c r="S6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="T6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="U6" s="7"/>
+      <c r="U6" s="4"/>
     </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="Q7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="R7" s="7" t="s">
+      <c r="R7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="S7" s="7" t="s">
+      <c r="S7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="T7" s="7" t="s">
+      <c r="T7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="U7" s="7"/>
+      <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="P8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="Q8" s="7" t="s">
+      <c r="Q8" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="R8" s="7" t="s">
+      <c r="R8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="S8" s="7" t="s">
+      <c r="S8" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="T8" s="7" t="s">
+      <c r="T8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="U8" s="7"/>
+      <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="O9" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="P9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="Q9" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="R9" s="7" t="s">
+      <c r="R9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="S9" s="7" t="s">
+      <c r="S9" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="T9" s="7" t="s">
+      <c r="T9" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="U9" s="7"/>
+      <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7" t="s">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="P10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q10" s="7" t="s">
+      <c r="Q10" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="R10" s="7" t="s">
+      <c r="R10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="S10" s="7" t="s">
+      <c r="S10" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="T10" s="7" t="s">
+      <c r="T10" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="U10" s="7"/>
+      <c r="U10" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="14">
